--- a/output_data/summary_plot_statistics.xlsx
+++ b/output_data/summary_plot_statistics.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -397,145 +397,150 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>IDW_Mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>CHM_VAR</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CHM_VAR_PERC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PlotID</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PlotGenus</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Additional_species_in_plot</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DateHarvest</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PeakBiomass</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>EPSG</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Corner1_X</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Corner1_Y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Corner1_Z</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Corner2_X</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Corner2_Y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Corner2_Z</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Corner3_X</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Corner3_Y</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Corner3_Z</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Corner4_X</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Corner4_Y</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Corner4_Z</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Field_max_height</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Harvest_frame_used</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>plot_side_length</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>AGB</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Notes_on_survey_harvest</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Notes_on_plot</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>plot_area_from_field_length</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Area_from_coordinates_m2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>AGB_spatially_normalised_g_m2</t>
         </is>
@@ -561,72 +566,75 @@
         <v>0.03410810959339142</v>
       </c>
       <c r="G2">
+        <v>0.5420205500282225</v>
+      </c>
+      <c r="H2">
         <v>0.2714996933937073</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>50.11611930870266</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>P01</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>44451</v>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>244012.389</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>95814.272</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>207.039</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>244011.509</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>95813.89999999999</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>206.919</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>244011.826</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>95812.997</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>206.867</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>244012.696</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>95813.372</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>206.9</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1.26</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1</v>
       </c>
     </row>
@@ -650,69 +658,72 @@
         <v>0.0549621561527253</v>
       </c>
       <c r="G3">
+        <v>0.519009357104536</v>
+      </c>
+      <c r="H3">
         <v>0.2887218296527863</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>56.37594825300553</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>P02</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>244000.551</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>95808.755</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>206.657</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>244000.009</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>95809.54300000001</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>206.688</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>243999.227</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>95809.02499999999</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>206.656</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>243999.769</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>95808.24000000001</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>206.627</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1.01</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
@@ -736,69 +747,72 @@
         <v>0.01737651636600494</v>
       </c>
       <c r="G4">
+        <v>0.2936134426320186</v>
+      </c>
+      <c r="H4">
         <v>0.1001244634389878</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>34.29508581131297</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>P03</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>243988.871</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>95806.273</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>206.604</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>243988.504</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>95807.147</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>206.666</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>243987.613</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>95806.789</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>206.593</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>243987.99</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>95805.931</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>206.602</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1.11</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
@@ -822,69 +836,72 @@
         <v>0.02011995824575408</v>
       </c>
       <c r="G5">
+        <v>0.2595868806858532</v>
+      </c>
+      <c r="H5">
         <v>0.1046226918697357</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>40.82681023311544</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>P04</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>243978.7</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>95801.92600000001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>206.241</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>243977.941</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>95801.36900000001</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>206.172</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>243978.472</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>95800.573</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>206.129</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>243979.247</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>95801.147</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>206.178</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1.2</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
@@ -908,69 +925,72 @@
         <v>0.01605856847763066</v>
       </c>
       <c r="G6">
+        <v>0.1154732148422569</v>
+      </c>
+      <c r="H6">
         <v>0.06627570092678067</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>57.42491032777116</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>P05</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>243978.025</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>95802.39</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>206.264</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>243977.133</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>95802.75199999999</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>206.239</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>243976.777</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>95801.878</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>206.207</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>243977.663</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>95801.505</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>206.196</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.8</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1</v>
       </c>
     </row>
@@ -994,69 +1014,72 @@
         <v>0.01878526427149781</v>
       </c>
       <c r="G7">
+        <v>0.1495060145122106</v>
+      </c>
+      <c r="H7">
         <v>0.07476275414228439</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>49.90055831147335</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>P06</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>243965.788</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>95801.186</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>206.598</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>243965.108</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>95801.856</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>206.572</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>243964.42</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>95801.193</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>206.514</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>243965.075</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>95800.54300000001</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>206.499</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.92</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1</v>
       </c>
     </row>
@@ -1080,69 +1103,72 @@
         <v>0.01402592945694936</v>
       </c>
       <c r="G8">
+        <v>0.239036430345207</v>
+      </c>
+      <c r="H8">
         <v>0.0766202360391616</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>32.0665911207294</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>P07</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>243958.119</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>95791.465</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>206.02</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>243957.358</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>95790.906</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>205.993</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>243957.947</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>95790.15300000001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>205.996</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>243958.713</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>95790.73299999999</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>205.985</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1.05</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
@@ -1166,69 +1192,72 @@
         <v>0.01474966745227575</v>
       </c>
       <c r="G9">
+        <v>0.08040009597774411</v>
+      </c>
+      <c r="H9">
         <v>0.06694889441132548</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>83.84629189570151</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>P08</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>243953.293</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>95792.534</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>206.05</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>243953.143</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>95793.48299999999</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>206.099</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>243952.213</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>95793.272</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>206.085</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>243952.377</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>95792.338</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>206.07</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.76</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
@@ -1252,69 +1281,72 @@
         <v>0.01267128598988064</v>
       </c>
       <c r="G10">
+        <v>0.2435158625489376</v>
+      </c>
+      <c r="H10">
         <v>0.06344342231750491</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>26.10261493943914</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>P09</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>243963.799</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>95817.107</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>207.16</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>243962.857</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>95816.912</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>207.125</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>243963.106</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>95815.986</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>207.099</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>243964.041</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>95816.20299999999</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>207.146</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.71</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1</v>
       </c>
     </row>
@@ -1338,69 +1370,72 @@
         <v>0.01550789178013793</v>
       </c>
       <c r="G11">
+        <v>0.4146506390610679</v>
+      </c>
+      <c r="H11">
         <v>0.07887172698974609</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>18.93927954783252</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>243974.119</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>95817.632</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>207.307</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>243973.469</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>95816.92</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>207.303</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>243974.16</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>95816.28599999999</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>207.254</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>243974.792</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>95816.993</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>207.301</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.96</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1</v>
       </c>
     </row>
@@ -1424,69 +1459,72 @@
         <v>0.01946474002003661</v>
       </c>
       <c r="G12">
+        <v>0.3138647885596166</v>
+      </c>
+      <c r="H12">
         <v>0.1022861301898956</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>32.69147751630309</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>243992.524</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>95836.61199999999</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>208.324</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>243993.031</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>95835.81600000001</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>208.293</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>243993.808</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>95836.37300000001</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>208.329</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>243993.293</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>95837.18799999999</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>208.35</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1.06</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1</v>
       </c>
     </row>
@@ -1510,69 +1548,72 @@
         <v>0.02438150571584701</v>
       </c>
       <c r="G13">
+        <v>0.3149271109065072</v>
+      </c>
+      <c r="H13">
         <v>0.1032114624977111</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>32.64861498072878</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>P12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>243998.752</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>95842.33199999999</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>208.487</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>243999.625</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>95842.758</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>208.536</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>243999.171</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>95843.598</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>208.57</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>243998.331</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>95843.182</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>208.495</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1.01</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1</v>
       </c>
     </row>
@@ -1596,69 +1637,72 @@
         <v>0.01759518755078324</v>
       </c>
       <c r="G14">
+        <v>0.3733389621875325</v>
+      </c>
+      <c r="H14">
         <v>0.1793830394744872</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>49.18228085088586</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>P13</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>244007.719</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>95845.912</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>208.567</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>244008.657</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>95846.08199999999</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>208.627</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>244008.501</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>95847.008</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>208.644</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>244007.565</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>95846.833</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>208.616</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.15</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1</v>
       </c>
     </row>
@@ -1682,69 +1726,72 @@
         <v>0.02828413905501374</v>
       </c>
       <c r="G15">
+        <v>0.3901306683899926</v>
+      </c>
+      <c r="H15">
         <v>0.2179391086101532</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>56.25419770822252</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>P14</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>244007.002</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>95861.382</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>209.476</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>244007.057</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>95862.321</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>209.529</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>244006.114</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>95862.349</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>209.517</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>244006.059</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>95861.395</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>209.492</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.14</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1</v>
       </c>
     </row>
@@ -1768,69 +1815,72 @@
         <v>0.09948553583621979</v>
       </c>
       <c r="G16">
+        <v>0.3898898221430231</v>
+      </c>
+      <c r="H16">
         <v>0.3673554956912994</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>98.45554092268162</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>P15</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>244007.189</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>95869.571</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>209.789</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>244007.232</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>95870.534</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>209.846</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>244006.295</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>95870.60400000001</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>209.89</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>244006.237</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>95869.656</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>209.737</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.1</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1</v>
       </c>
     </row>
@@ -1854,69 +1904,72 @@
         <v>0.01821156722903252</v>
       </c>
       <c r="G17">
+        <v>0.3275009379035136</v>
+      </c>
+      <c r="H17">
         <v>0.06823116540908808</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20.83529698551845</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>P16</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>243996.072</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>95848.75199999999</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>208.722</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>243995.107</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>95848.806</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>208.693</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>243995.099</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>95847.863</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>208.701</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>243996.043</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>95847.81200000001</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>208.677</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.92</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1</v>
       </c>
     </row>
@@ -1940,74 +1993,77 @@
         <v>0.02903028985261913</v>
       </c>
       <c r="G18">
+        <v>0.2487522861996635</v>
+      </c>
+      <c r="H18">
         <v>0.09966516494750979</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>39.94018828372795</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>P17</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>244001.712</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>95845.694</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>208.636</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>244001.242</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>95845.527</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>208.621</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>244001.477</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>95845.073</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>208.594</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>244001.968</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>95845.26300000001</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>208.605</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.67</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.5</v>
       </c>
     </row>
@@ -2031,74 +2087,77 @@
         <v>0.0265865984916687</v>
       </c>
       <c r="G19">
+        <v>0.692706289838572</v>
+      </c>
+      <c r="H19">
         <v>0.1209452748298645</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>17.54716688481409</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>P18</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>243990.794</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>95838.773</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>208.316</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>243991.704</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>95838.45600000001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>208.365</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>243992.009</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>95839.355</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>208.442</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>243991.082</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>95839.639</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>208.437</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1.43</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1</v>
       </c>
     </row>
@@ -2122,77 +2181,80 @@
         <v>0.01825500100851059</v>
       </c>
       <c r="G20">
+        <v>0.6117998869692693</v>
+      </c>
+      <c r="H20">
         <v>0.1315253376960754</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21.29360224824666</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>P19</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Festuca arundinacea, Erica Spp</t>
         </is>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>44451</v>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>243991.68</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>95833.97500000001</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>208.175</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>243991.886</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>95832.943</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>208.105</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>243992.96</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>95833.231</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>208.123</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>243992.719</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>95834.273</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>208.247</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1.09</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1.1</v>
       </c>
     </row>
@@ -2216,74 +2278,77 @@
         <v>0.02950545451641083</v>
       </c>
       <c r="G21">
+        <v>0.6919338986521861</v>
+      </c>
+      <c r="H21">
         <v>0.1402920484542847</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20.43343785698683</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>P20</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21">
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>243977.942</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>95829.265</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>207.964</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>243978.515</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>95830.71400000001</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>207.987</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>243977.095</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>95831.306</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>208.031</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>243976.628</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>95829.86500000001</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>207.949</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1.48</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1.6</v>
       </c>
     </row>
@@ -2307,74 +2372,77 @@
         <v>0.02866810603737823</v>
       </c>
       <c r="G22">
+        <v>0.4147780928455415</v>
+      </c>
+      <c r="H22">
         <v>0.2031023502349853</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>48.30163274681291</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>P21</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>243962.878</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>95832.329</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>207.877</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>243963.582</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>95832.66099999999</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>207.932</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>243963.193</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>95833.304</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>207.989</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>243962.518</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>95832.815</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>207.929</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1.38</v>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.75</v>
       </c>
     </row>
@@ -2398,74 +2466,77 @@
         <v>0.02215219960212707</v>
       </c>
       <c r="G23">
+        <v>0.6388217806816101</v>
+      </c>
+      <c r="H23">
         <v>0.1277942657470703</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>19.62756786609716</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>P22</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23">
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>243957.987</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>95833.485</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>207.929</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>243959.126</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>95833.088</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>207.945</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>243959.46</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>95834.125</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>207.929</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>243958.392</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>95834.398</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>207.953</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1.21</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1.1</v>
       </c>
     </row>
@@ -2489,74 +2560,77 @@
         <v>0.02624067472815505</v>
       </c>
       <c r="G24">
+        <v>0.4339217348176925</v>
+      </c>
+      <c r="H24">
         <v>0.1654667854309081</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>38.20123441045442</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>P23</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24">
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>243974.31</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>95818.694</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>207.355</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>243973.369</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>95818.715</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>207.341</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>243973.331</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>95817.757</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>207.307</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>243974.273</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>95817.724</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>207.35</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.15</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1</v>
       </c>
     </row>
@@ -2580,74 +2654,77 @@
         <v>0.02626038120388968</v>
       </c>
       <c r="G25">
+        <v>0.3244164664237226</v>
+      </c>
+      <c r="H25">
         <v>0.1055523455142975</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>32.76564605263885</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>P24</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <v>243971.411</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>95813.58900000001</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>207.133</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>243970.462</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>95813.632</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>207.158</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>243970.413</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>95812.692</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>207.083</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>243971.361</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>95812.643</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>207.088</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.91</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1</v>
       </c>
     </row>
@@ -2671,74 +2748,77 @@
         <v>0.02488459525108337</v>
       </c>
       <c r="G26">
+        <v>0.9543748126655328</v>
+      </c>
+      <c r="H26">
         <v>0.1590013504028316</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>16.62508423772011</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>P25</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26">
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>243974.905</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>95813.86500000001</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>207.194</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>243973.628</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>95813.511</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>207.123</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>243973.695</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>95812.534</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>207.071</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>243974.709</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>95812.391</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>207.12</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.38</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.1</v>
       </c>
     </row>
@@ -2762,74 +2842,77 @@
         <v>0.02452338350415238</v>
       </c>
       <c r="G27">
+        <v>0.3187872523167094</v>
+      </c>
+      <c r="H27">
         <v>0.1029016375541687</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>32.0778252407593</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>P26</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27">
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <v>243968.164</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>95806.95699999999</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>206.879</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>243968.14</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>95806.011</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>206.779</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>243969.09</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>95805.99000000001</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>206.726</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>243969.1</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>95806.924</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>206.791</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1</v>
       </c>
     </row>
@@ -2853,74 +2936,77 @@
         <v>0.02290709901452065</v>
       </c>
       <c r="G28">
+        <v>0.243856745909472</v>
+      </c>
+      <c r="H28">
         <v>0.09079669415950778</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>36.92127665729571</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>P27</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28">
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>243961.947</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>95805.72</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>206.655</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>243961.392</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>95805.28</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>206.662</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>243961.844</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>95804.734</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>206.603</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>243962.334</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>95805.181</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>206.692</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.84</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.7</v>
       </c>
     </row>
@@ -2944,74 +3030,77 @@
         <v>0.0111979562960565</v>
       </c>
       <c r="G29">
+        <v>0.03902293784452266</v>
+      </c>
+      <c r="H29">
         <v>0.08198697213083506</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>215.2121478633622</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>P28</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>243988.243</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>95817.601</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>207.375</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>243988.437</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>95817.182</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>207.386</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>243988.831</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>95817.355</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>207.395</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>243988.678</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>95817.776</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>207.422</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.21</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.5</v>
       </c>
     </row>
@@ -3035,74 +3124,77 @@
         <v>0.0313796905875206</v>
       </c>
       <c r="G30">
+        <v>0.4102171234420088</v>
+      </c>
+      <c r="H30">
         <v>0.1581021845340729</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>37.51757003744714</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>P29</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30">
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>243989.248</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>95817.81200000001</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>207.379</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>243989.511</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>95817.33500000001</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>207.318</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>243989.973</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>95817.61199999999</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>207.28</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>243989.708</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>95818.042</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>207.34</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.83</v>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.65</v>
       </c>
     </row>
@@ -3126,74 +3218,77 @@
         <v>0.01997565028667483</v>
       </c>
       <c r="G31">
+        <v>1.049603411408721</v>
+      </c>
+      <c r="H31">
         <v>0.114263653755188</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>10.77762017271062</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>P30</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31">
         <v>244002.398</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>95882.21799999999</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>210.312</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>243998.315</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>95882.87699999999</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>210.643</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>243997.829</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>95880.71000000001</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>210.401</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>244001.46</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>95880.005</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>210.209</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.89</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2</v>
       </c>
     </row>
@@ -3217,74 +3312,77 @@
         <v>0.01805095503330231</v>
       </c>
       <c r="G32">
+        <v>0.7355400216384013</v>
+      </c>
+      <c r="H32">
         <v>0.1251681447029114</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>16.46110108723681</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>P31</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32">
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>243985.71</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>95882.101</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>210.371</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>243987.307</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>95882.697</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>210.456</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>243986.624</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>95883.924</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>210.462</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>243985.174</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>95883.633</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>210.428</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1.37</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1.9</v>
       </c>
     </row>
@@ -3308,74 +3406,77 @@
         <v>0.01615966358184814</v>
       </c>
       <c r="G33">
+        <v>1.105286566937556</v>
+      </c>
+      <c r="H33">
         <v>0.08560013771057107</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.521604750197766</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>P32</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Ulex europaeus</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33">
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <v>243999.309</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>95887.181</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>210.869</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>244000.2</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>95885.947</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>210.828</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>244001.309</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>95886.36500000001</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>210.849</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>244000.954</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>95887.75599999999</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>210.905</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>1.68</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>1.5</v>
       </c>
     </row>
@@ -3399,77 +3500,80 @@
         <v>0.03108515388965606</v>
       </c>
       <c r="G34">
+        <v>0.7288875081500069</v>
+      </c>
+      <c r="H34">
         <v>0.2124020457267761</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>29.14050835669516</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>P33</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>44451</v>
       </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>243980.725</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>95826.90300000001</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>207.772</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>243980.916</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>95825.91499999999</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>207.738</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>243982.118</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>95826.291</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>207.716</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>243981.773</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>95827.037</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>207.779</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1.79</v>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1.25</v>
       </c>
     </row>
@@ -3493,77 +3597,80 @@
         <v>0.02984497146606445</v>
       </c>
       <c r="G35">
+        <v>0.4975585400081072</v>
+      </c>
+      <c r="H35">
         <v>0.1955203115940095</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>39.12316087553862</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>P34</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>44451</v>
       </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>243955.027</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>95822.357</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>207.275</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>243955.157</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>95822.90399999999</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>207.399</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>243954.524</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>95822.951</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>207.294</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>243954.44</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>95822.503</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>207.285</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>1.34</v>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.5</v>
       </c>
     </row>
@@ -3587,74 +3694,77 @@
         <v>0.1429191385745989</v>
       </c>
       <c r="G36">
+        <v>1.083894026084024</v>
+      </c>
+      <c r="H36">
         <v>0.4246327877044673</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>41.26356982515232</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>P35</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36">
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36">
         <v>243952.904</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>95830.094</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>207.64</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>243952.684</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>95831.288</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>207.68</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>243951.217</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>95831.094</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>207.634</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>243951.521</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>95829.322</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>207.562</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>2.84</v>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.65</v>
       </c>
     </row>
@@ -3678,77 +3788,80 @@
         <v>0.04333666101694107</v>
       </c>
       <c r="G37">
+        <v>0.7193673663452024</v>
+      </c>
+      <c r="H37">
         <v>0.2453524470329285</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>34.18464752740552</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>P36</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>44451</v>
       </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37">
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>243956.936</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>95829.62300000001</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>207.727</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>243957.409</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>95828.614</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>207.631</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>243958.165</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>95829.109</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>207.695</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>243957.725</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>95830.106</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>207.712</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1.32</v>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>1.2</v>
       </c>
     </row>
@@ -3772,77 +3885,80 @@
         <v>0.1110086103200912</v>
       </c>
       <c r="G38">
+        <v>0.6597109417446324</v>
+      </c>
+      <c r="H38">
         <v>0.4646859169006348</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>71.75109202524226</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>P37</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44451</v>
       </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38">
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38">
         <v>243961.233</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>95840.887</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>208.296</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>243962.031</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>95841.152</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>208.265</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>243961.711</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>95841.822</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>208.348</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>243961.01</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>95841.446</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>208.322</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>2.13</v>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.8</v>
       </c>
     </row>
@@ -3866,74 +3982,77 @@
         <v>0.03837725687026977</v>
       </c>
       <c r="G39">
+        <v>0.8602452541961044</v>
+      </c>
+      <c r="H39">
         <v>0.2691843509674072</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>31.74470393367746</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>P38</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39">
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>243962.151</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>95847.45600000001</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>208.544</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>243961.64</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>95845.72100000001</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>208.49</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>243962.93</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>95845.238</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>208.461</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>243963.713</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>95847.08199999999</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>208.615</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>1.55</v>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>1</v>
       </c>
     </row>
@@ -3957,74 +4076,77 @@
         <v>0.0256698497056961</v>
       </c>
       <c r="G40">
+        <v>0.614071680874121</v>
+      </c>
+      <c r="H40">
         <v>0.1116408705711365</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>18.19991291171521</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>P39</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40">
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40">
         <v>243966.803</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>95848.198</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>208.669</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>243966.995</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>95847.48699999999</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>208.669</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>243967.76</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>95847.61199999999</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>208.595</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>243967.64</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>95848.383</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>208.662</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>1.06</v>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>1</v>
       </c>
     </row>
@@ -4048,74 +4170,77 @@
         <v>0.0292145409822464</v>
       </c>
       <c r="G41">
+        <v>0.9269502045678311</v>
+      </c>
+      <c r="H41">
         <v>0.1775598526000977</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>20.06988627503725</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>P40</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41">
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>243968.28</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>95848.705</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>208.659</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>243969.618</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>95848.088</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>208.66</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>243970.279</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>95849.644</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>208.691</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>243968.701</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>95850.08100000001</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>208.749</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>1.7</v>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>1.5</v>
       </c>
     </row>
@@ -4139,74 +4264,77 @@
         <v>0.03735888276100158</v>
       </c>
       <c r="G42">
+        <v>0.8661446190271221</v>
+      </c>
+      <c r="H42">
         <v>0.1608244776725769</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>18.5470490104206</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>P41</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>243966.996</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>95852.14200000001</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>208.869</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>243966.589</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>95853.011</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>208.848</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>243965.813</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>95852.727</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>208.894</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>243966.123</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>95851.92600000001</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>208.796</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>1.27</v>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>1</v>
       </c>
     </row>
@@ -4230,74 +4358,77 @@
         <v>0.05935431425571441</v>
       </c>
       <c r="G43">
+        <v>0.9311511721767363</v>
+      </c>
+      <c r="H43">
         <v>0.32550048828125</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>38.056731630557</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>P42</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43">
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43">
         <v>243975.844</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>95850.954</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>208.841</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>243977.055</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>95850.71400000001</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>208.88</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>243977.271</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>95851.773</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>208.822</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>243976.134</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>95852.08900000001</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>208.88</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>1.94</v>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>1</v>
       </c>
     </row>
@@ -4321,74 +4452,77 @@
         <v>0.1051710750102997</v>
       </c>
       <c r="G44">
+        <v>1.144096313929949</v>
+      </c>
+      <c r="H44">
         <v>0.5168656110763552</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>50.00222401511574</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>P43</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44">
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44">
         <v>243978.171</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>95850.393</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>208.809</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>243979.508</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>95850.196</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>208.882</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>243979.932</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>95851.29300000001</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>208.881</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>243978.663</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>95852.183</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>208.906</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>2.9</v>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>1.5</v>
       </c>
     </row>
@@ -4412,74 +4546,77 @@
         <v>0.1162602535486221</v>
       </c>
       <c r="G45">
+        <v>0.9201768714873517</v>
+      </c>
+      <c r="H45">
         <v>0.5480675697326665</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>64.22476351190224</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>P44</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45">
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>243978.054</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>95850.338</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>208.816</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>243977.819</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>95849.189</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>208.794</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>243978.919</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>95848.844</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>208.741</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>243979.404</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>95849.935</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>208.812</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>2.75</v>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>1.2</v>
       </c>
     </row>
@@ -4503,77 +4640,80 @@
         <v>0.09854660621881485</v>
       </c>
       <c r="G46">
+        <v>0.9033502926591968</v>
+      </c>
+      <c r="H46">
         <v>0.377350866794586</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>43.207661178579</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>P45</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <v>44451</v>
       </c>
-      <c r="M46" t="b">
-        <v>1</v>
-      </c>
-      <c r="O46">
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <v>243984.286</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>95842.705</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>208.477</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>243984.394</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>95841.49800000001</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>208.396</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>243985.704</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>95841.663</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>208.463</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>243985.761</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>95842.783</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>208.409</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>2.35</v>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>1.5</v>
       </c>
     </row>
@@ -4597,74 +4737,77 @@
         <v>0.03112297618389129</v>
       </c>
       <c r="G47">
+        <v>0.7577530438782739</v>
+      </c>
+      <c r="H47">
         <v>0.1450337171554565</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>19.03434783871513</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>P46</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47">
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <v>243993.133</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>95849.855</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>208.75</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>243992.567</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>95850.338</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>208.801</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>243991.955</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>95849.773</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>208.788</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>243992.466</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>95849.236</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>208.749</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>1.21</v>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>1</v>
       </c>
     </row>
@@ -4688,77 +4831,80 @@
         <v>0.0938454187631607</v>
       </c>
       <c r="G48">
+        <v>0.6193656178771473</v>
+      </c>
+      <c r="H48">
         <v>0.379075676202774</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>62.21846560379623</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>P47</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>44451</v>
       </c>
-      <c r="M48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O48">
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48">
         <v>243999.632</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>95866.784</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>209.574</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>243999.609</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>95866.10400000001</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>209.55</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>244000.673</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>95866.11</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>209.587</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>244000.62</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>95866.84699999999</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>209.615</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>2.56</v>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>1</v>
       </c>
     </row>
@@ -4782,74 +4928,77 @@
         <v>0.09308543808460203</v>
       </c>
       <c r="G49">
+        <v>1.200982457301656</v>
+      </c>
+      <c r="H49">
         <v>0.4058845043182371</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>34.86469339869049</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>P48</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49">
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <v>243998.1</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>95868.069</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>209.64</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>243999.087</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>95869.35799999999</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>209.754</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>243997.934</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>95870.163</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>209.776</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>243997.173</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>95868.89999999999</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>209.761</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>1.9</v>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>1.5</v>
       </c>
     </row>
@@ -4873,74 +5022,77 @@
         <v>0.08008764760494298</v>
       </c>
       <c r="G50">
+        <v>1.296629350693499</v>
+      </c>
+      <c r="H50">
         <v>0.590664207935333</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>50.31885235499237</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>P49</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50">
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>243997.111</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>95872.63099999999</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>209.826</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>243996.048</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>95872.17999999999</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>209.797</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>243996.398</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>95870.85799999999</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>209.74</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>243997.927</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>95870.92600000001</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>209.824</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>3</v>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>1.5</v>
       </c>
     </row>
@@ -4964,74 +5116,77 @@
         <v>0.2079860331773764</v>
       </c>
       <c r="G51">
+        <v>1.606854286350188</v>
+      </c>
+      <c r="H51">
         <v>1.090401589870453</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>75.92305709195037</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>P50</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51">
         <v>243997.838</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>95871.40399999999</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>209.84</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>243999.061</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>95871.916</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>209.828</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>243998.601</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>95873.254</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>209.956</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>243997.394</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>95872.827</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>209.94</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>2.95</v>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>2</v>
       </c>
     </row>
@@ -5055,74 +5210,77 @@
         <v>0.03762249001264572</v>
       </c>
       <c r="G52">
+        <v>0.6656678592572447</v>
+      </c>
+      <c r="H52">
         <v>0.2149257659912109</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>31.16570062587544</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>P51</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52">
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52">
         <v>243999.612</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>95873.47900000001</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>209.995</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>244000.11</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>95873.976</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>209.976</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>243999.697</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>95874.39599999999</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>209.915</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>243999.166</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>95873.947</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>209.987</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>1.11</v>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>0.8</v>
       </c>
     </row>
@@ -5146,74 +5304,77 @@
         <v>0.1317212651252753</v>
       </c>
       <c r="G53">
+        <v>1.361562877404885</v>
+      </c>
+      <c r="H53">
         <v>0.5562088489532468</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>46.36023190956284</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>P52</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>1</v>
-      </c>
-      <c r="O53">
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53">
         <v>243984.798</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>95872.317</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>209.809</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>243985.205</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>95873.44100000001</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>209.849</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>243983.841</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>95873.95</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>209.885</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>243983.406</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>95872.62699999999</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>209.814</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>2.88</v>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>1.5</v>
       </c>
     </row>
@@ -5237,74 +5398,77 @@
         <v>0.0180149885058403</v>
       </c>
       <c r="G54">
+        <v>0.8193029790628151</v>
+      </c>
+      <c r="H54">
         <v>0.09590262174606323</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>11.59530426874124</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>P53</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>1</v>
-      </c>
-      <c r="O54">
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54">
         <v>243974.98</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>95867.649</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>209.502</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>243973.793</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>95868.069</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>209.456</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>243973.451</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>95867.242</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>209.444</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>243974.519</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>95866.897</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>209.48</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>1.32</v>
       </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>1</v>
       </c>
     </row>
@@ -5328,74 +5492,77 @@
         <v>0.1668670134544379</v>
       </c>
       <c r="G55">
+        <v>1.488362136434336</v>
+      </c>
+      <c r="H55">
         <v>0.6616720557212827</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>55.99353608068274</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>P54</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55">
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>243971.175</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>95863.88800000001</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>209.301</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>243969.62</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>95865.071</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>209.432</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>243968.143</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>95863.268</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>209.427</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>243970.117</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>95861.417</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>209.274</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>3.9</v>
       </c>
-      <c r="AB55" t="inlineStr">
+      <c r="AC55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>2</v>
       </c>
     </row>
@@ -5419,74 +5586,77 @@
         <v>0.1325666110754013</v>
       </c>
       <c r="G56">
+        <v>1.81763397474758</v>
+      </c>
+      <c r="H56">
         <v>0.600455522537231</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>36.72881808679742</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>P55</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>1</v>
-      </c>
-      <c r="O56">
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56">
         <v>243972.467</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>95858.588</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>209.093</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>243970.27</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>95854.781</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>209.006</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>243972.398</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>95853.59</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>208.903</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>243974.204</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>95855.493</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>208.946</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>3</v>
       </c>
-      <c r="AB56" t="inlineStr">
+      <c r="AC56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>3</v>
       </c>
     </row>
@@ -5510,74 +5680,77 @@
         <v>0.02981121418476105</v>
       </c>
       <c r="G57">
+        <v>0.8336072417556263</v>
+      </c>
+      <c r="H57">
         <v>0.1407398581504822</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>17.37775336050011</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>P56</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>1</v>
-      </c>
-      <c r="O57">
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57">
         <v>243976.475</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>95854.747</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>208.916</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>243975.858</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>95854.281</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>208.963</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>243976.405</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>95853.72</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>208.905</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>243977.14</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>95854.212</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>208.974</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>2</v>
       </c>
-      <c r="AB57" t="inlineStr">
+      <c r="AC57" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>0.8</v>
       </c>
     </row>
@@ -5601,74 +5774,77 @@
         <v>0.3046500965595252</v>
       </c>
       <c r="G58">
+        <v>2.812215762060197</v>
+      </c>
+      <c r="H58">
         <v>1.211400389671326</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>46.79334441291608</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>P57</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>1</v>
-      </c>
-      <c r="O58">
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58">
         <v>243958.293</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>95850.556</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>208.66</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>243957.795</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>95852.853</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>208.716</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>243955.603</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>95851.965</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>208.66</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>243954.82</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>95850.399</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>208.596</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>4.2</v>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>2</v>
       </c>
     </row>
@@ -5692,74 +5868,77 @@
         <v>0.1321698304653181</v>
       </c>
       <c r="G59">
+        <v>3.166368887072704</v>
+      </c>
+      <c r="H59">
         <v>0.685699462890625</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>21.85715461363431</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>P58</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>1</v>
-      </c>
-      <c r="O59">
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59">
         <v>243954.134</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>95850.361</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>208.475</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>243955.42</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>95853.071</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>208.682</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>243953.572</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>95853.967</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>208.689</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>243951.139</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>95852.36599999999</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>208.567</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>4</v>
       </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>3</v>
       </c>
     </row>
@@ -5783,74 +5962,77 @@
         <v>0.1582403490543372</v>
       </c>
       <c r="G60">
+        <v>2.173005977614981</v>
+      </c>
+      <c r="H60">
         <v>0.894277811050415</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>41.38275474035068</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>P59</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>1</v>
-      </c>
-      <c r="O60">
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60">
         <v>243950.284</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>95854.291</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>208.596</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>243949.534</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>95855.98299999999</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>208.754</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>243948.007</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>95855.59600000001</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>208.647</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>243949.208</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>95854.179</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>208.617</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>4</v>
       </c>
-      <c r="AB60" t="inlineStr">
+      <c r="AC60" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC60">
+      <c r="AD60">
         <v>2</v>
       </c>
     </row>
@@ -5874,74 +6056,77 @@
         <v>0.02330834230184621</v>
       </c>
       <c r="G61">
+        <v>1.004573612916665</v>
+      </c>
+      <c r="H61">
         <v>0.1014507412910464</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>10.16917679597223</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>P60</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61">
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61">
         <v>243963.807</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>95854.287</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>208.852</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>243965.114</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>95853.75599999999</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>208.863</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>243965.255</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>95855.37300000001</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>209.038</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>243964.037</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>95855.495</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>209.075</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>1.7</v>
       </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AC61" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>1</v>
       </c>
     </row>
@@ -5965,74 +6150,77 @@
         <v>0.1710719158530235</v>
       </c>
       <c r="G62">
+        <v>1.087436563655978</v>
+      </c>
+      <c r="H62">
         <v>0.658969938755035</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>69.50476637357652</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>P61</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62">
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62">
         <v>243967.184</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>95844.69</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>208.488</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>243965.224</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>95844.147</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>208.437</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>243965.819</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>95842.352</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>208.375</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>243967.373</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>95843.31600000001</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>208.427</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>2.5</v>
       </c>
-      <c r="AB62" t="inlineStr">
+      <c r="AC62" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>2</v>
       </c>
     </row>
@@ -6056,74 +6244,77 @@
         <v>0.1494419820427901</v>
       </c>
       <c r="G63">
+        <v>0.9918271811282049</v>
+      </c>
+      <c r="H63">
         <v>0.5135585069656374</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>54.94368178814448</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>P62</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>1</v>
-      </c>
-      <c r="O63">
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63">
         <v>243968.263</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>95837.611</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>208.254</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>243968.343</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>95836.302</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>208.118</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>243970.087</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>95836.701</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>208.195</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>243970.156</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>95838.03999999999</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>208.324</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>2.6</v>
       </c>
-      <c r="AB63" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>2</v>
       </c>
     </row>
@@ -6147,74 +6338,77 @@
         <v>0.09625526447296076</v>
       </c>
       <c r="G64">
+        <v>1.061059024490294</v>
+      </c>
+      <c r="H64">
         <v>0.4596109986305237</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>43.94018324030839</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>P63</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Betula</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64">
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>243970.948</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>95836.762</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>208.187</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>243969.863</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>95836.21799999999</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>208.187</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>243970.607</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>95834.844</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>207.999</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>243971.735</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>95835.09</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>208.162</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>2.2</v>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AC64" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>2</v>
       </c>
     </row>
@@ -6238,74 +6432,77 @@
         <v>0.01677290613055237</v>
       </c>
       <c r="G65">
+        <v>0.3932126003210662</v>
+      </c>
+      <c r="H65">
         <v>0.0730399489402771</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>18.39276915900121</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>P64</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Salix aurita</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65">
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65">
         <v>243972.496</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>95831.03999999999</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>207.952</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>243972.233</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>95830.717</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>207.955</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>243972.715</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>95830.38099999999</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>207.915</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>243973.025</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>95830.88099999999</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>207.922</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>0.57</v>
       </c>
-      <c r="AB65" t="inlineStr">
+      <c r="AC65" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>0.5</v>
       </c>
     </row>
